--- a/doc/设计模式-通俗理解.xlsx
+++ b/doc/设计模式-通俗理解.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>单例</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>不好体会</t>
+  </si>
+  <si>
+    <t>设计原则</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/wwhhgg/p/12691972.html</t>
   </si>
 </sst>
 </file>
@@ -811,7 +817,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -831,6 +837,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1149,10 +1158,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:C24"/>
+  <dimension ref="B1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1339,7 +1348,20 @@
         <v>43</v>
       </c>
     </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B29" r:id="rId1" display="https://www.cnblogs.com/wwhhgg/p/12691972.html"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
